--- a/addressbook-web-tests/addressbook-web-tests/group.xlsx
+++ b/addressbook-web-tests/addressbook-web-tests/group.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liza\source\repos\ElizavetaGu\csharp_training\addressbook-web-tests\addressbook-test-data-generators\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liza\source\repos\ElizavetaGu\csharp_training\addressbook-web-tests\addressbook-web-tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,22 +26,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>A7]&amp;B#^N[</t>
-  </si>
-  <si>
-    <t>I:YF@BZB]V@0IE&gt;LGHW(D:'MUCE&gt;MNCV=4I[_#UO&lt;0$_90N8JV&gt;6XS1/3-R^^&lt;U/3KU5]DNDT(M36)4EV-</t>
-  </si>
-  <si>
-    <t>X1.^K":GS2XS!&lt;VLO=9&lt;&amp;)[BP&amp;_Z*Z-(PG_`%N)3D^\2^6LYA&gt;F(=RPO7L.E$A=Z&amp;P";&gt;WG!3&amp;Y)-IF:;&amp;</t>
-  </si>
-  <si>
-    <t>M4%L</t>
-  </si>
-  <si>
-    <t>X/I:?E/#A#,.41:JXEV7ZGBO'U*_(QF!#$D//-COXWI*=7&amp;*MPWP05&amp;1N[3K;1\Q=++0N+&lt;J"&amp;@#_81PP 29[WRO_2B4[Y5H[</t>
-  </si>
-  <si>
-    <t>N2-V=A4,N)V#46JD];_CWG:=2&lt;J'P+SY)%K`DZER%O*IZ]`,L7][I8#'ZQD!X,=C8^[.LK #W-&gt;(=RD7=&gt;=9/Y0Q</t>
+    <t>rewr</t>
+  </si>
+  <si>
+    <t>rewter</t>
+  </si>
+  <si>
+    <t>retwergfd</t>
+  </si>
+  <si>
+    <t>fdsgdfgsdf</t>
+  </si>
+  <si>
+    <t>gdfshfh</t>
+  </si>
+  <si>
+    <t>gfsdgfdgsd</t>
   </si>
 </sst>
 </file>
@@ -361,27 +361,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
